--- a/out/test/Figori_algorithm_5.xlsx
+++ b/out/test/Figori_algorithm_5.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.68500000000000005</v>
+        <v>0.68725000000000003</v>
       </c>
       <c r="B1">
-        <v>0.67074999999999996</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C1">
-        <v>0.45550000000000002</v>
+        <v>0.68935000000000002</v>
       </c>
       <c r="D1">
-        <v>0.68864999999999998</v>
+        <v>0.67779999999999996</v>
       </c>
       <c r="E1">
-        <v>0.68035000000000001</v>
+        <v>0.67805000000000004</v>
       </c>
       <c r="F1">
-        <v>0.69030000000000002</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="G1">
-        <v>0.45369999999999999</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="H1">
-        <v>0.67725000000000002</v>
+        <v>0.45684999999999998</v>
       </c>
       <c r="I1">
-        <v>0.68799999999999994</v>
+        <v>0.68159999999999998</v>
       </c>
       <c r="J1">
-        <v>0.67784999999999995</v>
+        <v>0.68394999999999995</v>
       </c>
       <c r="K1">
+        <v>0.45365</v>
+      </c>
+      <c r="L1">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="M1">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="N1">
+        <v>0.68554999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.68045</v>
+      </c>
+      <c r="P1">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="R1">
+        <v>0.69215000000000004</v>
+      </c>
+      <c r="S1">
+        <v>0.68059999999999998</v>
+      </c>
+      <c r="T1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="U1">
+        <v>0.67774999999999996</v>
+      </c>
+      <c r="V1">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="W1">
+        <v>0.69389999999999996</v>
+      </c>
+      <c r="X1">
+        <v>0.67905000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.45079999999999998</v>
+      </c>
+      <c r="Z1">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="AA1">
+        <v>0.68625000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="AC1">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="AE1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="AF1">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="AG1">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="AH1">
+        <v>0.69135000000000002</v>
+      </c>
+      <c r="AI1">
+        <v>0.4536</v>
+      </c>
+      <c r="AJ1">
+        <v>0.6865</v>
+      </c>
+      <c r="AK1">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="AL1">
+        <v>0.68005000000000004</v>
+      </c>
+      <c r="AM1">
+        <v>0.69025000000000003</v>
+      </c>
+      <c r="AN1">
+        <v>0.67864999999999998</v>
+      </c>
+      <c r="AO1">
         <v>0.45479999999999998</v>
       </c>
-      <c r="L1">
-        <v>0.6825</v>
-      </c>
-      <c r="M1">
-        <v>0.68725000000000003</v>
-      </c>
-      <c r="N1">
-        <v>0.45455000000000001</v>
-      </c>
-      <c r="O1">
-        <v>0.6794</v>
-      </c>
-      <c r="P1">
-        <v>0.67654999999999998</v>
-      </c>
-      <c r="Q1">
-        <v>0.67190000000000005</v>
-      </c>
-      <c r="R1">
-        <v>0.67254999999999998</v>
-      </c>
-      <c r="S1">
-        <v>0.45724999999999999</v>
-      </c>
-      <c r="T1">
-        <v>0.67895000000000005</v>
-      </c>
-      <c r="U1">
-        <v>0.67264999999999997</v>
-      </c>
-      <c r="V1">
-        <v>0.67010000000000003</v>
-      </c>
-      <c r="W1">
-        <v>0.68615000000000004</v>
-      </c>
-      <c r="X1">
-        <v>0.6673</v>
-      </c>
-      <c r="Y1">
-        <v>0.68315000000000003</v>
-      </c>
-      <c r="Z1">
-        <v>0.6885</v>
-      </c>
-      <c r="AA1">
-        <v>0.67520000000000002</v>
-      </c>
-      <c r="AB1">
-        <v>0.67974999999999997</v>
-      </c>
-      <c r="AC1">
-        <v>0.68869999999999998</v>
-      </c>
-      <c r="AD1">
-        <v>0.68320000000000003</v>
-      </c>
-      <c r="AE1">
-        <v>0.68010000000000004</v>
-      </c>
-      <c r="AF1">
-        <v>0.45779999999999998</v>
-      </c>
-      <c r="AG1">
-        <v>0.67979999999999996</v>
-      </c>
-      <c r="AH1">
-        <v>0.67479999999999996</v>
-      </c>
-      <c r="AI1">
-        <v>0.68345</v>
-      </c>
-      <c r="AJ1">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="AK1">
-        <v>0.68520000000000003</v>
-      </c>
-      <c r="AL1">
-        <v>0.68225000000000002</v>
-      </c>
-      <c r="AM1">
-        <v>0.68379999999999996</v>
-      </c>
-      <c r="AN1">
-        <v>0.67430000000000001</v>
-      </c>
-      <c r="AO1">
-        <v>0.67464999999999997</v>
-      </c>
       <c r="AP1">
-        <v>0.68269999999999997</v>
+        <v>0.67469999999999997</v>
       </c>
       <c r="AQ1">
-        <v>0.68645</v>
+        <v>0.69145000000000001</v>
       </c>
       <c r="AR1">
-        <v>0.68235000000000001</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="AS1">
-        <v>0.68810000000000004</v>
+        <v>0.69025000000000003</v>
       </c>
       <c r="AT1">
-        <v>0.68715000000000004</v>
+        <v>0.68774999999999997</v>
       </c>
       <c r="AU1">
-        <v>0.66879999999999995</v>
+        <v>0.45174999999999998</v>
       </c>
       <c r="AV1">
-        <v>0.45984999999999998</v>
+        <v>0.67935000000000001</v>
       </c>
       <c r="AW1">
-        <v>0.6804</v>
+        <v>0.45384999999999998</v>
       </c>
       <c r="AX1">
-        <v>0.67410000000000003</v>
+        <v>0.68069999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.66705000000000003</v>
+        <v>0.66205000000000003</v>
       </c>
       <c r="B2">
-        <v>0.65934999999999999</v>
+        <v>0.43509999999999999</v>
       </c>
       <c r="C2">
-        <v>0.42949999999999999</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="D2">
-        <v>0.66925000000000001</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="E2">
-        <v>0.65105000000000002</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="F2">
-        <v>0.91139999999999999</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="G2">
-        <v>0.43619999999999998</v>
+        <v>0.6825</v>
       </c>
       <c r="H2">
-        <v>0.66695000000000004</v>
+        <v>0.43795000000000001</v>
       </c>
       <c r="I2">
-        <v>0.68415000000000004</v>
+        <v>0.88785000000000003</v>
       </c>
       <c r="J2">
-        <v>0.67500000000000004</v>
+        <v>0.66974999999999996</v>
       </c>
       <c r="K2">
-        <v>0.43745000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="L2">
-        <v>0.66174999999999995</v>
+        <v>0.67854999999999999</v>
       </c>
       <c r="M2">
-        <v>0.6754</v>
+        <v>0.68164999999999998</v>
       </c>
       <c r="N2">
-        <v>0.44479999999999997</v>
+        <v>0.67044999999999999</v>
       </c>
       <c r="O2">
-        <v>0.66234999999999999</v>
+        <v>0.65390000000000004</v>
       </c>
       <c r="P2">
-        <v>0.63849999999999996</v>
+        <v>0.63385000000000002</v>
       </c>
       <c r="Q2">
-        <v>0.65069999999999995</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="R2">
-        <v>0.92449999999999999</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="S2">
-        <v>0.44119999999999998</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="T2">
-        <v>0.67615000000000003</v>
+        <v>0.66654999999999998</v>
       </c>
       <c r="U2">
-        <v>0.6603</v>
+        <v>0.63975000000000004</v>
       </c>
       <c r="V2">
-        <v>0.65044999999999997</v>
+        <v>0.6542</v>
       </c>
       <c r="W2">
-        <v>0.65159999999999996</v>
+        <v>0.68525000000000003</v>
       </c>
       <c r="X2">
-        <v>0.67595000000000005</v>
+        <v>0.64080000000000004</v>
       </c>
       <c r="Y2">
-        <v>0.6492</v>
+        <v>0.44055</v>
       </c>
       <c r="Z2">
-        <v>0.67635000000000001</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="AA2">
-        <v>0.65864999999999996</v>
+        <v>0.64649999999999996</v>
       </c>
       <c r="AB2">
-        <v>0.6754</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="AC2">
-        <v>0.6734</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.65475000000000005</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.66905000000000003</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="AF2">
-        <v>0.68354999999999999</v>
+        <v>0.43845000000000001</v>
       </c>
       <c r="AG2">
-        <v>0.67144999999999999</v>
+        <v>0.64380000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.68179999999999996</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="AI2">
-        <v>0.68725000000000003</v>
+        <v>0.43880000000000002</v>
       </c>
       <c r="AJ2">
-        <v>0.66215000000000002</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="AK2">
-        <v>0.66539999999999999</v>
+        <v>0.66625000000000001</v>
       </c>
       <c r="AL2">
-        <v>0.67059999999999997</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="AM2">
-        <v>0.67190000000000005</v>
+        <v>0.67120000000000002</v>
       </c>
       <c r="AN2">
-        <v>0.65125</v>
+        <v>0.63419999999999999</v>
       </c>
       <c r="AO2">
-        <v>0.63419999999999999</v>
+        <v>0.44940000000000002</v>
       </c>
       <c r="AP2">
-        <v>0.64370000000000005</v>
+        <v>0.66354999999999997</v>
       </c>
       <c r="AQ2">
-        <v>0.67910000000000004</v>
+        <v>0.67225000000000001</v>
       </c>
       <c r="AR2">
-        <v>0.66735</v>
+        <v>0.67435</v>
       </c>
       <c r="AS2">
-        <v>0.67589999999999995</v>
+        <v>0.6583</v>
       </c>
       <c r="AT2">
-        <v>0.68254999999999999</v>
+        <v>0.90510000000000002</v>
       </c>
       <c r="AU2">
-        <v>0.66315000000000002</v>
+        <v>0.44535000000000002</v>
       </c>
       <c r="AV2">
-        <v>0.43459999999999999</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="AW2">
-        <v>0.67874999999999996</v>
+        <v>0.45265</v>
       </c>
       <c r="AX2">
-        <v>0.66474999999999995</v>
+        <v>0.66405000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.64219999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="B3">
-        <v>0.77895000000000003</v>
+        <v>0.40594999999999998</v>
       </c>
       <c r="C3">
-        <v>0.41644999999999999</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="D3">
-        <v>0.89500000000000002</v>
+        <v>0.59814999999999996</v>
       </c>
       <c r="E3">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.67830000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.62544999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.40734999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.88414999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.64115</v>
+      </c>
+      <c r="L3">
+        <v>0.60135000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.68254999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="O3">
+        <v>0.60675000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.65575000000000006</v>
+      </c>
+      <c r="R3">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="S3">
+        <v>0.61555000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="U3">
+        <v>0.58384999999999998</v>
+      </c>
+      <c r="V3">
+        <v>0.621</v>
+      </c>
+      <c r="W3">
+        <v>0.61404999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="Y3">
+        <v>0.66354999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="AA3">
+        <v>0.59584999999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="AC3">
         <v>0.87119999999999997</v>
       </c>
-      <c r="F3">
-        <v>0.84035000000000004</v>
-      </c>
-      <c r="G3">
-        <v>0.40150000000000002</v>
-      </c>
-      <c r="H3">
-        <v>0.63180000000000003</v>
-      </c>
-      <c r="I3">
-        <v>0.90964999999999996</v>
-      </c>
-      <c r="J3">
-        <v>0.65310000000000001</v>
-      </c>
-      <c r="K3">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="L3">
-        <v>0.65249999999999997</v>
-      </c>
-      <c r="M3">
-        <v>0.64534999999999998</v>
-      </c>
-      <c r="N3">
-        <v>0.41485</v>
-      </c>
-      <c r="O3">
-        <v>0.60260000000000002</v>
-      </c>
-      <c r="P3">
-        <v>0.62919999999999998</v>
-      </c>
-      <c r="Q3">
-        <v>0.63770000000000004</v>
-      </c>
-      <c r="R3">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="S3">
-        <v>0.42109999999999997</v>
-      </c>
-      <c r="T3">
-        <v>0.67695000000000005</v>
-      </c>
-      <c r="U3">
-        <v>0.62724999999999997</v>
-      </c>
-      <c r="V3">
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="W3">
-        <v>0.62605</v>
-      </c>
-      <c r="X3">
-        <v>0.64985000000000004</v>
-      </c>
-      <c r="Y3">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="Z3">
-        <v>0.62024999999999997</v>
-      </c>
-      <c r="AA3">
-        <v>0.82440000000000002</v>
-      </c>
-      <c r="AB3">
-        <v>0.65964999999999996</v>
-      </c>
-      <c r="AC3">
-        <v>0.879</v>
-      </c>
       <c r="AD3">
-        <v>0.82264999999999999</v>
+        <v>0.63744999999999996</v>
       </c>
       <c r="AE3">
-        <v>0.66059999999999997</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.84035000000000004</v>
+        <v>0.40334999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.91454999999999997</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="AH3">
-        <v>0.65980000000000005</v>
+        <v>0.63685000000000003</v>
       </c>
       <c r="AI3">
-        <v>0.64065000000000005</v>
+        <v>0.39424999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.61655000000000004</v>
+        <v>0.67384999999999995</v>
       </c>
       <c r="AK3">
-        <v>0.62680000000000002</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="AL3">
-        <v>0.63290000000000002</v>
+        <v>0.63090000000000002</v>
       </c>
       <c r="AM3">
-        <v>0.63419999999999999</v>
+        <v>0.83725000000000005</v>
       </c>
       <c r="AN3">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="AO3">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="AP3">
         <v>0.62414999999999998</v>
       </c>
-      <c r="AO3">
-        <v>0.59594999999999998</v>
-      </c>
-      <c r="AP3">
-        <v>0.60985</v>
-      </c>
       <c r="AQ3">
-        <v>0.65664999999999996</v>
+        <v>0.65585000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.64944999999999997</v>
+        <v>0.60129999999999995</v>
       </c>
       <c r="AS3">
-        <v>0.6946</v>
+        <v>0.66695000000000004</v>
       </c>
       <c r="AT3">
-        <v>0.62314999999999998</v>
+        <v>0.83174999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.6401</v>
+        <v>0.41420000000000001</v>
       </c>
       <c r="AV3">
-        <v>0.38059999999999999</v>
+        <v>0.64685000000000004</v>
       </c>
       <c r="AW3">
-        <v>0.65554999999999997</v>
+        <v>0.42930000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.56694999999999995</v>
+        <v>0.62104999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.84119999999999995</v>
+        <v>0.54474999999999996</v>
       </c>
       <c r="B4">
-        <v>0.76205000000000001</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="C4">
-        <v>0.33650000000000002</v>
+        <v>0.59675</v>
       </c>
       <c r="D4">
-        <v>0.81645000000000001</v>
+        <v>0.57709999999999995</v>
       </c>
       <c r="E4">
-        <v>0.87795000000000001</v>
+        <v>0.55044999999999999</v>
       </c>
       <c r="F4">
-        <v>0.81810000000000005</v>
+        <v>0.90575000000000006</v>
       </c>
       <c r="G4">
-        <v>0.37914999999999999</v>
+        <v>0.58169999999999999</v>
       </c>
       <c r="H4">
-        <v>0.51970000000000005</v>
+        <v>0.38229999999999997</v>
       </c>
       <c r="I4">
-        <v>0.91379999999999995</v>
+        <v>0.78464999999999996</v>
       </c>
       <c r="J4">
-        <v>0.59619999999999995</v>
+        <v>0.53454999999999997</v>
       </c>
       <c r="K4">
-        <v>0.57284999999999997</v>
+        <v>0.59040000000000004</v>
       </c>
       <c r="L4">
-        <v>0.56630000000000003</v>
+        <v>0.52634999999999998</v>
       </c>
       <c r="M4">
-        <v>0.90939999999999999</v>
+        <v>0.63114999999999999</v>
       </c>
       <c r="N4">
-        <v>0.36645</v>
+        <v>0.88344999999999996</v>
       </c>
       <c r="O4">
-        <v>0.78525</v>
+        <v>0.50344999999999995</v>
       </c>
       <c r="P4">
-        <v>0.59155000000000002</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="Q4">
-        <v>0.56215000000000004</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="R4">
-        <v>0.94140000000000001</v>
+        <v>0.74304999999999999</v>
       </c>
       <c r="S4">
-        <v>0.77985000000000004</v>
+        <v>0.55389999999999995</v>
       </c>
       <c r="T4">
-        <v>0.65395000000000003</v>
+        <v>0.63324999999999998</v>
       </c>
       <c r="U4">
-        <v>0.71950000000000003</v>
+        <v>0.51229999999999998</v>
       </c>
       <c r="V4">
-        <v>0.56459999999999999</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="W4">
-        <v>0.60850000000000004</v>
+        <v>0.55435000000000001</v>
       </c>
       <c r="X4">
-        <v>0.59019999999999995</v>
+        <v>0.55159999999999998</v>
       </c>
       <c r="Y4">
-        <v>0.53369999999999995</v>
+        <v>0.60614999999999997</v>
       </c>
       <c r="Z4">
-        <v>0.57969999999999999</v>
+        <v>0.77885000000000004</v>
       </c>
       <c r="AA4">
-        <v>0.77300000000000002</v>
+        <v>0.51219999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.60494999999999999</v>
+        <v>0.60950000000000004</v>
       </c>
       <c r="AC4">
-        <v>0.82669999999999999</v>
+        <v>0.76780000000000004</v>
       </c>
       <c r="AD4">
-        <v>0.72750000000000004</v>
+        <v>0.75780000000000003</v>
       </c>
       <c r="AE4">
-        <v>0.85119999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="AF4">
-        <v>0.77005000000000001</v>
+        <v>0.35965000000000003</v>
       </c>
       <c r="AG4">
-        <v>0.81064999999999998</v>
+        <v>0.58125000000000004</v>
       </c>
       <c r="AH4">
-        <v>0.60240000000000005</v>
+        <v>0.54320000000000002</v>
       </c>
       <c r="AI4">
-        <v>0.54215000000000002</v>
+        <v>0.54905000000000004</v>
       </c>
       <c r="AJ4">
-        <v>0.51659999999999995</v>
+        <v>0.79905000000000004</v>
       </c>
       <c r="AK4">
-        <v>0.57074999999999998</v>
+        <v>0.57194999999999996</v>
       </c>
       <c r="AL4">
-        <v>0.58589999999999998</v>
+        <v>0.58840000000000003</v>
       </c>
       <c r="AM4">
-        <v>0.59575</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="AN4">
-        <v>0.56459999999999999</v>
+        <v>0.53234999999999999</v>
       </c>
       <c r="AO4">
-        <v>0.52715000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="AP4">
-        <v>0.58835000000000004</v>
+        <v>0.58660000000000001</v>
       </c>
       <c r="AQ4">
-        <v>0.57430000000000003</v>
+        <v>0.88680000000000003</v>
       </c>
       <c r="AR4">
-        <v>0.91290000000000004</v>
+        <v>0.57555000000000001</v>
       </c>
       <c r="AS4">
-        <v>0.66820000000000002</v>
+        <v>0.65059999999999996</v>
       </c>
       <c r="AT4">
-        <v>0.54374999999999996</v>
+        <v>0.82950000000000002</v>
       </c>
       <c r="AU4">
-        <v>0.59635000000000005</v>
+        <v>0.60285</v>
       </c>
       <c r="AV4">
-        <v>0.5484</v>
+        <v>0.628</v>
       </c>
       <c r="AW4">
-        <v>0.63534999999999997</v>
+        <v>0.37714999999999999</v>
       </c>
       <c r="AX4">
-        <v>0.52505000000000002</v>
+        <v>0.56505000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.84330000000000005</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="B5">
-        <v>0.74639999999999995</v>
+        <v>0.29704999999999998</v>
       </c>
       <c r="C5">
-        <v>0.43049999999999999</v>
+        <v>0.51570000000000005</v>
       </c>
       <c r="D5">
-        <v>0.75939999999999996</v>
+        <v>0.53785000000000005</v>
       </c>
       <c r="E5">
-        <v>0.81425000000000003</v>
+        <v>0.79285000000000005</v>
       </c>
       <c r="F5">
-        <v>0.70245000000000002</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="G5">
-        <v>0.31969999999999998</v>
+        <v>0.57930000000000004</v>
       </c>
       <c r="H5">
-        <v>0.42570000000000002</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="I5">
-        <v>0.88965000000000005</v>
+        <v>0.73660000000000003</v>
       </c>
       <c r="J5">
-        <v>0.55474999999999997</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="K5">
-        <v>0.65195000000000003</v>
+        <v>0.46855000000000002</v>
       </c>
       <c r="L5">
-        <v>0.47360000000000002</v>
+        <v>0.70030000000000003</v>
       </c>
       <c r="M5">
-        <v>0.91244999999999998</v>
+        <v>0.59760000000000002</v>
       </c>
       <c r="N5">
-        <v>0.48244999999999999</v>
+        <v>0.75305</v>
       </c>
       <c r="O5">
-        <v>0.74595</v>
+        <v>0.43075000000000002</v>
       </c>
       <c r="P5">
-        <v>0.76844999999999997</v>
+        <v>0.48845</v>
       </c>
       <c r="Q5">
-        <v>0.75365000000000004</v>
+        <v>0.74395</v>
       </c>
       <c r="R5">
-        <v>0.90005000000000002</v>
+        <v>0.71345000000000003</v>
       </c>
       <c r="S5">
-        <v>0.58084999999999998</v>
+        <v>0.48864999999999997</v>
       </c>
       <c r="T5">
-        <v>0.63590000000000002</v>
+        <v>0.54605000000000004</v>
       </c>
       <c r="U5">
-        <v>0.74065000000000003</v>
+        <v>0.57925000000000004</v>
       </c>
       <c r="V5">
-        <v>0.45134999999999997</v>
+        <v>0.5474</v>
       </c>
       <c r="W5">
-        <v>0.51395000000000002</v>
+        <v>0.43845000000000001</v>
       </c>
       <c r="X5">
-        <v>0.80725000000000002</v>
+        <v>0.46525</v>
       </c>
       <c r="Y5">
-        <v>0.46629999999999999</v>
+        <v>0.56340000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.6018</v>
+        <v>0.76575000000000004</v>
       </c>
       <c r="AA5">
-        <v>0.77710000000000001</v>
+        <v>0.42485000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.50585000000000002</v>
+        <v>0.64454999999999996</v>
       </c>
       <c r="AC5">
-        <v>0.75590000000000002</v>
+        <v>0.84165000000000001</v>
       </c>
       <c r="AD5">
-        <v>0.51934999999999998</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="AE5">
-        <v>0.78574999999999995</v>
+        <v>0.46095000000000003</v>
       </c>
       <c r="AF5">
-        <v>0.74019999999999997</v>
+        <v>0.318</v>
       </c>
       <c r="AG5">
-        <v>0.81399999999999995</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.55500000000000005</v>
+        <v>0.43509999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.43654999999999999</v>
+        <v>0.44135000000000002</v>
       </c>
       <c r="AJ5">
-        <v>0.45784999999999998</v>
+        <v>0.77285000000000004</v>
       </c>
       <c r="AK5">
-        <v>0.49025000000000002</v>
+        <v>0.54274999999999995</v>
       </c>
       <c r="AL5">
-        <v>0.56879999999999997</v>
+        <v>0.79425000000000001</v>
       </c>
       <c r="AM5">
-        <v>0.49785000000000001</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="AN5">
-        <v>0.60560000000000003</v>
+        <v>0.45090000000000002</v>
       </c>
       <c r="AO5">
-        <v>0.60760000000000003</v>
+        <v>0.29094999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.51119999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AQ5">
-        <v>0.45329999999999998</v>
+        <v>0.85270000000000001</v>
       </c>
       <c r="AR5">
-        <v>0.85575000000000001</v>
+        <v>0.5907</v>
       </c>
       <c r="AS5">
-        <v>0.63300000000000001</v>
+        <v>0.63119999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.76385000000000003</v>
+        <v>0.81445000000000001</v>
       </c>
       <c r="AU5">
-        <v>0.6159</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="AV5">
-        <v>0.56379999999999997</v>
+        <v>0.51515</v>
       </c>
       <c r="AW5">
-        <v>0.62529999999999997</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="AX5">
-        <v>0.48885000000000001</v>
+        <v>0.42470000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.74880000000000002</v>
+        <v>0.37285000000000001</v>
       </c>
       <c r="B6">
-        <v>0.73865000000000003</v>
+        <v>0.31905</v>
       </c>
       <c r="C6">
-        <v>0.65159999999999996</v>
+        <v>0.67430000000000001</v>
       </c>
       <c r="D6">
-        <v>0.69059999999999999</v>
+        <v>0.6704</v>
       </c>
       <c r="E6">
-        <v>0.83235000000000003</v>
+        <v>0.78574999999999995</v>
       </c>
       <c r="F6">
-        <v>0.68135000000000001</v>
+        <v>0.80615000000000003</v>
       </c>
       <c r="G6">
-        <v>0.23280000000000001</v>
+        <v>0.8427</v>
       </c>
       <c r="H6">
-        <v>0.39445000000000002</v>
+        <v>0.30875000000000002</v>
       </c>
       <c r="I6">
-        <v>0.86929999999999996</v>
+        <v>0.81405000000000005</v>
       </c>
       <c r="J6">
-        <v>0.48139999999999999</v>
+        <v>0.52354999999999996</v>
       </c>
       <c r="K6">
-        <v>0.70979999999999999</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="L6">
-        <v>0.52515000000000001</v>
+        <v>0.4985</v>
       </c>
       <c r="M6">
-        <v>0.84055000000000002</v>
+        <v>0.6673</v>
       </c>
       <c r="N6">
-        <v>0.43874999999999997</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="O6">
-        <v>0.75349999999999995</v>
+        <v>0.30780000000000002</v>
       </c>
       <c r="P6">
-        <v>0.6956</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.59860000000000002</v>
+        <v>0.75675000000000003</v>
       </c>
       <c r="R6">
-        <v>0.92569999999999997</v>
+        <v>0.623</v>
       </c>
       <c r="S6">
-        <v>0.60035000000000005</v>
+        <v>0.3795</v>
       </c>
       <c r="T6">
-        <v>0.60414999999999996</v>
+        <v>0.39084999999999998</v>
       </c>
       <c r="U6">
-        <v>0.62744999999999995</v>
+        <v>0.59560000000000002</v>
       </c>
       <c r="V6">
-        <v>0.36864999999999998</v>
+        <v>0.52344999999999997</v>
       </c>
       <c r="W6">
-        <v>0.47320000000000001</v>
+        <v>0.41585</v>
       </c>
       <c r="X6">
-        <v>0.88829999999999998</v>
+        <v>0.34260000000000002</v>
       </c>
       <c r="Y6">
-        <v>0.51434999999999997</v>
+        <v>0.48954999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.54779999999999995</v>
+        <v>0.75195000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.72150000000000003</v>
+        <v>0.50665000000000004</v>
       </c>
       <c r="AB6">
-        <v>0.33975</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="AC6">
-        <v>0.76305000000000001</v>
+        <v>0.80605000000000004</v>
       </c>
       <c r="AD6">
-        <v>0.41299999999999998</v>
+        <v>0.68784999999999996</v>
       </c>
       <c r="AE6">
-        <v>0.62760000000000005</v>
+        <v>0.40044999999999997</v>
       </c>
       <c r="AF6">
-        <v>0.71819999999999995</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="AG6">
-        <v>0.61529999999999996</v>
+        <v>0.41885</v>
       </c>
       <c r="AH6">
-        <v>0.53515000000000001</v>
+        <v>0.27850000000000003</v>
       </c>
       <c r="AI6">
-        <v>0.43940000000000001</v>
+        <v>0.32295000000000001</v>
       </c>
       <c r="AJ6">
-        <v>0.40500000000000003</v>
+        <v>0.84304999999999997</v>
       </c>
       <c r="AK6">
-        <v>0.5786</v>
+        <v>0.62060000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.56520000000000004</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="AM6">
-        <v>0.41615000000000002</v>
+        <v>0.62919999999999998</v>
       </c>
       <c r="AN6">
-        <v>0.50734999999999997</v>
+        <v>0.39015</v>
       </c>
       <c r="AO6">
-        <v>0.76319999999999999</v>
+        <v>0.21224999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.36919999999999997</v>
+        <v>0.36325000000000002</v>
       </c>
       <c r="AQ6">
-        <v>0.35435</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="AR6">
-        <v>0.75004999999999999</v>
+        <v>0.68335000000000001</v>
       </c>
       <c r="AS6">
-        <v>0.59955000000000003</v>
+        <v>0.51624999999999999</v>
       </c>
       <c r="AT6">
-        <v>0.71579999999999999</v>
+        <v>0.71414999999999995</v>
       </c>
       <c r="AU6">
-        <v>0.76985000000000003</v>
+        <v>0.61765000000000003</v>
       </c>
       <c r="AV6">
-        <v>0.51434999999999997</v>
+        <v>0.48759999999999998</v>
       </c>
       <c r="AW6">
-        <v>0.62855000000000005</v>
+        <v>0.45169999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.69</v>
+        <v>0.46889999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.61165000000000003</v>
+        <v>0.52444999999999997</v>
       </c>
       <c r="B7">
-        <v>0.56535000000000002</v>
+        <v>0.45224999999999999</v>
       </c>
       <c r="C7">
-        <v>0.77800000000000002</v>
+        <v>0.66974999999999996</v>
       </c>
       <c r="D7">
-        <v>0.6915</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="E7">
-        <v>0.82674999999999998</v>
+        <v>0.70974999999999999</v>
       </c>
       <c r="F7">
-        <v>0.53800000000000003</v>
+        <v>0.66034999999999999</v>
       </c>
       <c r="G7">
-        <v>0.13965</v>
+        <v>0.73465000000000003</v>
       </c>
       <c r="H7">
-        <v>0.71655000000000002</v>
+        <v>0.55130000000000001</v>
       </c>
       <c r="I7">
-        <v>0.78800000000000003</v>
+        <v>0.70235000000000003</v>
       </c>
       <c r="J7">
-        <v>0.52644999999999997</v>
+        <v>0.38514999999999999</v>
       </c>
       <c r="K7">
-        <v>0.74129999999999996</v>
+        <v>0.54125000000000001</v>
       </c>
       <c r="L7">
-        <v>0.30940000000000001</v>
+        <v>0.43245</v>
       </c>
       <c r="M7">
-        <v>0.76329999999999998</v>
+        <v>0.5171</v>
       </c>
       <c r="N7">
-        <v>0.48954999999999999</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="O7">
-        <v>0.71599999999999997</v>
+        <v>0.23524999999999999</v>
       </c>
       <c r="P7">
-        <v>0.54264999999999997</v>
+        <v>0.44305</v>
       </c>
       <c r="Q7">
-        <v>0.45689999999999997</v>
+        <v>0.78795000000000004</v>
       </c>
       <c r="R7">
-        <v>0.95935000000000004</v>
+        <v>0.55025000000000002</v>
       </c>
       <c r="S7">
-        <v>0.49614999999999998</v>
+        <v>0.35449999999999998</v>
       </c>
       <c r="T7">
-        <v>0.75</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="U7">
-        <v>0.63334999999999997</v>
+        <v>0.77915000000000001</v>
       </c>
       <c r="V7">
-        <v>0.40534999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="W7">
-        <v>0.7722</v>
+        <v>0.27710000000000001</v>
       </c>
       <c r="X7">
-        <v>0.88639999999999997</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.55810000000000004</v>
+        <v>0.54025000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.50195000000000001</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="AA7">
-        <v>0.69110000000000005</v>
+        <v>0.60119999999999996</v>
       </c>
       <c r="AB7">
-        <v>0.45229999999999998</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.81815000000000004</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.498</v>
+        <v>0.86595</v>
       </c>
       <c r="AE7">
-        <v>0.53705000000000003</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AF7">
-        <v>0.63595000000000002</v>
+        <v>0.57725000000000004</v>
       </c>
       <c r="AG7">
-        <v>0.63695000000000002</v>
+        <v>0.25530000000000003</v>
       </c>
       <c r="AH7">
-        <v>0.4924</v>
+        <v>0.16364999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.43264999999999998</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="AJ7">
-        <v>0.37030000000000002</v>
+        <v>0.74104999999999999</v>
       </c>
       <c r="AK7">
-        <v>0.49909999999999999</v>
+        <v>0.48039999999999999</v>
       </c>
       <c r="AL7">
-        <v>0.42220000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="AM7">
-        <v>0.24304999999999999</v>
+        <v>0.67274999999999996</v>
       </c>
       <c r="AN7">
-        <v>0.54354999999999998</v>
+        <v>0.35439999999999999</v>
       </c>
       <c r="AO7">
-        <v>0.61485000000000001</v>
+        <v>0.2646</v>
       </c>
       <c r="AP7">
-        <v>0.36575000000000002</v>
+        <v>0.23619999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.22969999999999999</v>
+        <v>0.6744</v>
       </c>
       <c r="AR7">
-        <v>0.81520000000000004</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="AS7">
-        <v>0.70020000000000004</v>
+        <v>0.46344999999999997</v>
       </c>
       <c r="AT7">
-        <v>0.56145</v>
+        <v>0.5181</v>
       </c>
       <c r="AU7">
-        <v>0.61950000000000005</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="AV7">
-        <v>0.47184999999999999</v>
+        <v>0.46505000000000002</v>
       </c>
       <c r="AW7">
-        <v>0.83425000000000005</v>
+        <v>0.38035000000000002</v>
       </c>
       <c r="AX7">
-        <v>0.62380000000000002</v>
+        <v>0.49819999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.66120000000000001</v>
+        <v>0.44869999999999999</v>
       </c>
       <c r="B8">
-        <v>0.3337</v>
+        <v>0.52295000000000003</v>
       </c>
       <c r="C8">
-        <v>0.60504999999999998</v>
+        <v>0.57825000000000004</v>
       </c>
       <c r="D8">
-        <v>0.52210000000000001</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="E8">
-        <v>0.65780000000000005</v>
+        <v>0.62834999999999996</v>
       </c>
       <c r="F8">
-        <v>0.70265</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="G8">
-        <v>3.9600000000000003E-2</v>
+        <v>0.73965000000000003</v>
       </c>
       <c r="H8">
-        <v>0.87050000000000005</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="I8">
-        <v>0.6008</v>
+        <v>0.58825000000000005</v>
       </c>
       <c r="J8">
-        <v>0.50629999999999997</v>
+        <v>0.37809999999999999</v>
       </c>
       <c r="K8">
-        <v>0.54649999999999999</v>
+        <v>0.31695000000000001</v>
       </c>
       <c r="L8">
-        <v>0.15570000000000001</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="M8">
-        <v>0.67515000000000003</v>
+        <v>0.77085000000000004</v>
       </c>
       <c r="N8">
-        <v>0.48859999999999998</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="O8">
-        <v>0.86670000000000003</v>
+        <v>0.14035</v>
       </c>
       <c r="P8">
-        <v>0.43790000000000001</v>
+        <v>0.42420000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.31119999999999998</v>
+        <v>0.78844999999999998</v>
       </c>
       <c r="R8">
-        <v>0.96350000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="S8">
-        <v>0.41594999999999999</v>
+        <v>0.61475000000000002</v>
       </c>
       <c r="T8">
-        <v>0.71030000000000004</v>
+        <v>0.45660000000000001</v>
       </c>
       <c r="U8">
-        <v>0.84684999999999999</v>
+        <v>0.84724999999999995</v>
       </c>
       <c r="V8">
-        <v>0.36954999999999999</v>
+        <v>0.52424999999999999</v>
       </c>
       <c r="W8">
-        <v>0.75505</v>
+        <v>0.59294999999999998</v>
       </c>
       <c r="X8">
-        <v>0.73665000000000003</v>
+        <v>0.54279999999999995</v>
       </c>
       <c r="Y8">
-        <v>0.60809999999999997</v>
+        <v>0.30454999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.67425000000000002</v>
+        <v>0.60575000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.56464999999999999</v>
+        <v>0.55345</v>
       </c>
       <c r="AB8">
-        <v>0.60870000000000002</v>
+        <v>0.77769999999999995</v>
       </c>
       <c r="AC8">
-        <v>0.92595000000000005</v>
+        <v>0.51190000000000002</v>
       </c>
       <c r="AD8">
-        <v>0.47020000000000001</v>
+        <v>0.62090000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.66744999999999999</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.69535000000000002</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.70094999999999996</v>
+        <v>0.25295000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.39679999999999999</v>
+        <v>0.1215</v>
       </c>
       <c r="AI8">
-        <v>0.33500000000000002</v>
+        <v>0.48744999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.33565</v>
+        <v>0.5766</v>
       </c>
       <c r="AK8">
-        <v>0.29344999999999999</v>
+        <v>0.30209999999999998</v>
       </c>
       <c r="AL8">
-        <v>0.4955</v>
+        <v>0.51580000000000004</v>
       </c>
       <c r="AM8">
-        <v>0.34210000000000002</v>
+        <v>0.44519999999999998</v>
       </c>
       <c r="AN8">
-        <v>0.50765000000000005</v>
+        <v>0.48559999999999998</v>
       </c>
       <c r="AO8">
-        <v>0.7571</v>
+        <v>0.31455</v>
       </c>
       <c r="AP8">
-        <v>0.38300000000000001</v>
+        <v>0.1326</v>
       </c>
       <c r="AQ8">
-        <v>0.25955</v>
+        <v>0.67735000000000001</v>
       </c>
       <c r="AR8">
-        <v>0.72270000000000001</v>
+        <v>0.6381</v>
       </c>
       <c r="AS8">
-        <v>0.82994999999999997</v>
+        <v>0.41510000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.67689999999999995</v>
+        <v>0.80169999999999997</v>
       </c>
       <c r="AU8">
-        <v>0.58760000000000001</v>
+        <v>0.53354999999999997</v>
       </c>
       <c r="AV8">
-        <v>0.44169999999999998</v>
+        <v>0.4849</v>
       </c>
       <c r="AW8">
-        <v>0.66100000000000003</v>
+        <v>0.23465</v>
       </c>
       <c r="AX8">
-        <v>0.55649999999999999</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.54544999999999999</v>
+        <v>0.3347</v>
       </c>
       <c r="B9">
-        <v>0.59570000000000001</v>
+        <v>0.40225</v>
       </c>
       <c r="C9">
-        <v>0.4264</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D9">
-        <v>0.5212</v>
+        <v>0.95365</v>
       </c>
       <c r="E9">
-        <v>0.46684999999999999</v>
+        <v>0.71450000000000002</v>
       </c>
       <c r="F9">
-        <v>0.59875</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="G9">
-        <v>0.1084</v>
+        <v>0.68045</v>
       </c>
       <c r="H9">
-        <v>0.5907</v>
+        <v>0.42225000000000001</v>
       </c>
       <c r="I9">
-        <v>0.55035000000000001</v>
+        <v>0.35835</v>
       </c>
       <c r="J9">
-        <v>0.69899999999999995</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="K9">
-        <v>0.58535000000000004</v>
+        <v>0.25650000000000001</v>
       </c>
       <c r="L9">
-        <v>0.29435</v>
+        <v>0.41525000000000001</v>
       </c>
       <c r="M9">
-        <v>0.61650000000000005</v>
+        <v>0.70065</v>
       </c>
       <c r="N9">
-        <v>0.61309999999999998</v>
+        <v>0.27034999999999998</v>
       </c>
       <c r="O9">
-        <v>0.79510000000000003</v>
+        <v>0.12975</v>
       </c>
       <c r="P9">
-        <v>0.53320000000000001</v>
+        <v>0.27084999999999998</v>
       </c>
       <c r="Q9">
-        <v>0.31514999999999999</v>
+        <v>0.79259999999999997</v>
       </c>
       <c r="R9">
-        <v>0.92084999999999995</v>
+        <v>0.47025</v>
       </c>
       <c r="S9">
-        <v>0.29099999999999998</v>
+        <v>0.69074999999999998</v>
       </c>
       <c r="T9">
-        <v>0.75624999999999998</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="U9">
-        <v>0.79159999999999997</v>
+        <v>0.96684999999999999</v>
       </c>
       <c r="V9">
-        <v>0.48949999999999999</v>
+        <v>0.38974999999999999</v>
       </c>
       <c r="W9">
-        <v>0.62255000000000005</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="X9">
-        <v>0.58845000000000003</v>
+        <v>0.64134999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.72019999999999995</v>
+        <v>0.40355000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.67835000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="AA9">
-        <v>0.50149999999999995</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="AB9">
-        <v>0.38979999999999998</v>
+        <v>0.85945000000000005</v>
       </c>
       <c r="AC9">
-        <v>0.72975000000000001</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.57455000000000001</v>
+        <v>0.46310000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.43259999999999998</v>
+        <v>0.26415</v>
       </c>
       <c r="AF9">
-        <v>0.65669999999999995</v>
+        <v>0.49809999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.47889999999999999</v>
+        <v>0.27329999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.15905</v>
+        <v>0.34870000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.63465000000000005</v>
+        <v>0.45284999999999997</v>
       </c>
       <c r="AJ9">
-        <v>0.41889999999999999</v>
+        <v>0.54335</v>
       </c>
       <c r="AK9">
-        <v>0.50314999999999999</v>
+        <v>0.21240000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.45900000000000002</v>
+        <v>0.36795</v>
       </c>
       <c r="AM9">
-        <v>0.41510000000000002</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="AN9">
-        <v>0.49404999999999999</v>
+        <v>0.53085000000000004</v>
       </c>
       <c r="AO9">
-        <v>0.61709999999999998</v>
+        <v>0.19625000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.43919999999999998</v>
+        <v>0.30854999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.14610000000000001</v>
+        <v>0.56535000000000002</v>
       </c>
       <c r="AR9">
-        <v>0.66244999999999998</v>
+        <v>0.62534999999999996</v>
       </c>
       <c r="AS9">
-        <v>0.84275</v>
+        <v>0.62080000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.66064999999999996</v>
+        <v>0.80384999999999995</v>
       </c>
       <c r="AU9">
-        <v>0.4148</v>
+        <v>0.16214999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.69189999999999996</v>
+        <v>0.68074999999999997</v>
       </c>
       <c r="AW9">
-        <v>0.54085000000000005</v>
+        <v>0.28005000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.74885000000000002</v>
+        <v>0.18640000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.49964999999999998</v>
+        <v>0.1971</v>
       </c>
       <c r="B10">
-        <v>0.51805000000000001</v>
+        <v>0.3569</v>
       </c>
       <c r="C10">
-        <v>0.38200000000000001</v>
+        <v>0.59675</v>
       </c>
       <c r="D10">
-        <v>0.77315</v>
+        <v>0.81584999999999996</v>
       </c>
       <c r="E10">
-        <v>0.33224999999999999</v>
+        <v>0.77234999999999998</v>
       </c>
       <c r="F10">
-        <v>0.58015000000000005</v>
+        <v>0.70345000000000002</v>
       </c>
       <c r="G10">
-        <v>4.1950000000000001E-2</v>
+        <v>0.59604999999999997</v>
       </c>
       <c r="H10">
-        <v>0.56520000000000004</v>
+        <v>0.24495</v>
       </c>
       <c r="I10">
-        <v>0.84109999999999996</v>
+        <v>0.45584999999999998</v>
       </c>
       <c r="J10">
-        <v>0.84619999999999995</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="K10">
-        <v>0.62060000000000004</v>
+        <v>0.28089999999999998</v>
       </c>
       <c r="L10">
-        <v>0.2167</v>
+        <v>0.66754999999999998</v>
       </c>
       <c r="M10">
-        <v>0.59784999999999999</v>
+        <v>0.59955000000000003</v>
       </c>
       <c r="N10">
-        <v>0.59745000000000004</v>
+        <v>0.26995000000000002</v>
       </c>
       <c r="O10">
-        <v>0.83404999999999996</v>
+        <v>0.43330000000000002</v>
       </c>
       <c r="P10">
-        <v>0.54649999999999999</v>
+        <v>0.11155</v>
       </c>
       <c r="Q10">
-        <v>0.4803</v>
+        <v>0.85085</v>
       </c>
       <c r="R10">
-        <v>0.72855000000000003</v>
+        <v>0.41039999999999999</v>
       </c>
       <c r="S10">
-        <v>0.33624999999999999</v>
+        <v>0.63080000000000003</v>
       </c>
       <c r="T10">
-        <v>0.66259999999999997</v>
+        <v>0.81305000000000005</v>
       </c>
       <c r="U10">
-        <v>0.77410000000000001</v>
+        <v>0.84560000000000002</v>
       </c>
       <c r="V10">
-        <v>0.69455</v>
+        <v>0.47549999999999998</v>
       </c>
       <c r="W10">
-        <v>0.51729999999999998</v>
+        <v>0.74429999999999996</v>
       </c>
       <c r="X10">
-        <v>0.75714999999999999</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="Y10">
-        <v>0.44869999999999999</v>
+        <v>0.21754999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.58445000000000003</v>
+        <v>0.58240000000000003</v>
       </c>
       <c r="AA10">
-        <v>0.52324999999999999</v>
+        <v>0.1749</v>
       </c>
       <c r="AB10">
-        <v>0.36395</v>
+        <v>0.71314999999999995</v>
       </c>
       <c r="AC10">
-        <v>0.59765000000000001</v>
+        <v>0.47565000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.60029999999999994</v>
+        <v>0.54325000000000001</v>
       </c>
       <c r="AE10">
-        <v>0.56220000000000003</v>
+        <v>0.38705000000000001</v>
       </c>
       <c r="AF10">
-        <v>0.64605000000000001</v>
+        <v>0.29115000000000002</v>
       </c>
       <c r="AG10">
-        <v>0.47625000000000001</v>
+        <v>0.32524999999999998</v>
       </c>
       <c r="AH10">
-        <v>7.775E-2</v>
+        <v>0.49014999999999997</v>
       </c>
       <c r="AI10">
-        <v>0.65974999999999995</v>
+        <v>0.54444999999999999</v>
       </c>
       <c r="AJ10">
-        <v>0.78534999999999999</v>
+        <v>0.40325</v>
       </c>
       <c r="AK10">
-        <v>0.65349999999999997</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="AL10">
-        <v>0.6008</v>
+        <v>0.32665</v>
       </c>
       <c r="AM10">
-        <v>0.47820000000000001</v>
+        <v>0.74024999999999996</v>
       </c>
       <c r="AN10">
-        <v>0.49430000000000002</v>
+        <v>0.79620000000000002</v>
       </c>
       <c r="AO10">
-        <v>0.57415000000000005</v>
+        <v>0.11265</v>
       </c>
       <c r="AP10">
-        <v>0.49335000000000001</v>
+        <v>0.40984999999999999</v>
       </c>
       <c r="AQ10">
-        <v>0.25905</v>
+        <v>0.30885000000000001</v>
       </c>
       <c r="AR10">
-        <v>0.58774999999999999</v>
+        <v>0.55189999999999995</v>
       </c>
       <c r="AS10">
-        <v>0.7399</v>
+        <v>0.26295000000000002</v>
       </c>
       <c r="AT10">
-        <v>0.54830000000000001</v>
+        <v>0.65039999999999998</v>
       </c>
       <c r="AU10">
-        <v>0.35715000000000002</v>
+        <v>0.20735000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.48430000000000001</v>
+        <v>0.52359999999999995</v>
       </c>
       <c r="AW10">
-        <v>0.49409999999999998</v>
+        <v>0.26540000000000002</v>
       </c>
       <c r="AX10">
-        <v>0.59619999999999995</v>
+        <v>0.14649999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.48870000000000002</v>
+        <v>0.6804</v>
       </c>
       <c r="B11">
-        <v>0.31864999999999999</v>
+        <v>0.5897</v>
       </c>
       <c r="C11">
-        <v>0.17324999999999999</v>
+        <v>0.70065</v>
       </c>
       <c r="D11">
-        <v>0.44505</v>
+        <v>0.68330000000000002</v>
       </c>
       <c r="E11">
-        <v>0.50880000000000003</v>
+        <v>0.82115000000000005</v>
       </c>
       <c r="F11">
-        <v>0.51690000000000003</v>
+        <v>0.59475</v>
       </c>
       <c r="G11">
-        <v>3.3550000000000003E-2</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="H11">
-        <v>0.42130000000000001</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="I11">
-        <v>0.71525000000000005</v>
+        <v>0.49195</v>
       </c>
       <c r="J11">
-        <v>0.79764999999999997</v>
+        <v>0.53905000000000003</v>
       </c>
       <c r="K11">
-        <v>0.48304999999999998</v>
+        <v>0.44335000000000002</v>
       </c>
       <c r="L11">
-        <v>0.35344999999999999</v>
+        <v>0.34294999999999998</v>
       </c>
       <c r="M11">
-        <v>0.63019999999999998</v>
+        <v>0.63334999999999997</v>
       </c>
       <c r="N11">
-        <v>0.64539999999999997</v>
+        <v>0.45134999999999997</v>
       </c>
       <c r="O11">
-        <v>0.65500000000000003</v>
+        <v>0.39705000000000001</v>
       </c>
       <c r="P11">
-        <v>0.38019999999999998</v>
+        <v>0.22125</v>
       </c>
       <c r="Q11">
-        <v>0.46494999999999997</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="R11">
-        <v>0.70240000000000002</v>
+        <v>0.62985000000000002</v>
       </c>
       <c r="S11">
-        <v>0.35254999999999997</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="T11">
-        <v>0.62390000000000001</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="U11">
-        <v>0.89834999999999998</v>
+        <v>0.93079999999999996</v>
       </c>
       <c r="V11">
-        <v>0.47349999999999998</v>
+        <v>0.57094999999999996</v>
       </c>
       <c r="W11">
-        <v>0.66454999999999997</v>
+        <v>0.59265000000000001</v>
       </c>
       <c r="X11">
-        <v>0.59225000000000005</v>
+        <v>0.60809999999999997</v>
       </c>
       <c r="Y11">
-        <v>0.41785</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.66874999999999996</v>
+        <v>0.70169999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.72619999999999996</v>
+        <v>0.1827</v>
       </c>
       <c r="AB11">
-        <v>0.47975000000000001</v>
+        <v>0.55759999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.52439999999999998</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.4592</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="AE11">
-        <v>0.60160000000000002</v>
+        <v>0.4612</v>
       </c>
       <c r="AF11">
-        <v>0.52790000000000004</v>
+        <v>0.26324999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.59524999999999995</v>
+        <v>0.46815000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.10829999999999999</v>
+        <v>0.50334999999999996</v>
       </c>
       <c r="AI11">
-        <v>0.57225000000000004</v>
+        <v>0.48309999999999997</v>
       </c>
       <c r="AJ11">
-        <v>0.80335000000000001</v>
+        <v>0.28610000000000002</v>
       </c>
       <c r="AK11">
-        <v>0.60729999999999995</v>
+        <v>2.9649999999999999E-2</v>
       </c>
       <c r="AL11">
-        <v>0.61970000000000003</v>
+        <v>0.58020000000000005</v>
       </c>
       <c r="AM11">
-        <v>0.4133</v>
+        <v>0.80545</v>
       </c>
       <c r="AN11">
-        <v>0.45650000000000002</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="AO11">
-        <v>0.63614999999999999</v>
+        <v>0.35825000000000001</v>
       </c>
       <c r="AP11">
-        <v>0.48935000000000001</v>
+        <v>0.74555000000000005</v>
       </c>
       <c r="AQ11">
-        <v>0.3609</v>
+        <v>0.60904999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.75795000000000001</v>
+        <v>0.57015000000000005</v>
       </c>
       <c r="AS11">
-        <v>0.59379999999999999</v>
+        <v>0.41475000000000001</v>
       </c>
       <c r="AT11">
-        <v>0.65715000000000001</v>
+        <v>0.55715000000000003</v>
       </c>
       <c r="AU11">
-        <v>0.36799999999999999</v>
+        <v>0.27255000000000001</v>
       </c>
       <c r="AV11">
-        <v>0.60734999999999995</v>
+        <v>0.52285000000000004</v>
       </c>
       <c r="AW11">
-        <v>0.45045000000000002</v>
+        <v>0.2374</v>
       </c>
       <c r="AX11">
-        <v>0.41470000000000001</v>
+        <v>7.5050000000000006E-2</v>
       </c>
     </row>
   </sheetData>
